--- a/productsList.xlsx
+++ b/productsList.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emnac\Desktop\home-draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6820EEE4-8ADC-4303-BC8A-9EEE2EEBAC67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C073878E-1787-4666-B179-087C1ECDC208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{63324CB0-43BB-48B0-A978-1FD114462D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555422FF-BF87-4B9D-BE21-70DDB1AD4AAC}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E1">
         <v>6</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>6.5</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>6.5</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>8.1</v>
@@ -584,12 +584,12 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>12.5</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>6.8</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>4.9000000000000004</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>10.5</v>
@@ -621,12 +621,12 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>6.8</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>4.9000000000000004</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>6.2</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>9.4</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3.8</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>17.5</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>6.5</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>4.5</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>1.8</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>7.5</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>12</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>12.8</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E25">
         <v>8.8000000000000007</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>5.5</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>17.899999999999999</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>17.899999999999999</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>17.899999999999999</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>13.5</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>4.1900000000000004</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>4.1900000000000004</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <v>4.1900000000000004</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E35">
         <v>4.1900000000000004</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E36">
         <v>4.1900000000000004</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>6.9</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>6.9</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E39">
         <v>12</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <v>6</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>6.8</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E43">
         <v>10.5</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E44">
         <v>6.8</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <v>32</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E46">
         <v>7.8</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E47">
         <v>2.6</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>4.5</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>7.8</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>6.8</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E51">
         <v>6.8</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>1.5</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E53">
         <v>10.8</v>
@@ -970,13 +970,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E54">
         <v>5.2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A54">
+    <sortCondition ref="A1:A54"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
